--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_4_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_4_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-146060.1624920458</v>
+        <v>-148041.0790724716</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2630451.066553575</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13360779.02453448</v>
+        <v>13369228.22944824</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>234.5840753888385</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>138.4900194571568</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -820,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -865,22 +865,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>6.837139712981958</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>56.7269974417932</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>141.1972538697208</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>1.678593880211542</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,16 +1066,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>76.94981712654037</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.916656265211</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1148,10 +1148,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>250.4328446728615</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>45.57031425872306</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,28 +1291,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>14.46389722690833</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>139.5297567177295</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1528,10 +1528,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.3327002607877</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>51.66115081227368</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>112.7491951016476</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1825,10 +1825,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>138.6841640381749</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>1.68132338420997</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2017,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>63.26013908350998</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2096,7 +2096,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
         <v>81.77913505274074</v>
@@ -2245,13 +2245,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>2.18656249896992</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>181.8399598283854</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274066</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2412,10 +2412,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H24" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014439</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2530,19 +2530,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>143.4367313547843</v>
       </c>
       <c r="V25" t="n">
-        <v>187.8326399421092</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2570,10 +2570,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113179</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274142</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2649,10 +2649,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H27" t="n">
-        <v>94.98542483262929</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014476</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>138.5070438670633</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T27" t="n">
         <v>192.9654699154601</v>
@@ -2719,16 +2719,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>54.01912532116752</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836034</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>143.1325253647798</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2773,10 +2773,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2807,10 +2807,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113179</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274142</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2886,10 +2886,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H30" t="n">
-        <v>94.98542483262929</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014476</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>138.5070438670633</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T30" t="n">
         <v>192.9654699154601</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533795</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>112.04356447007</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.4122163896553</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801211</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437342</v>
+        <v>90.21779139437419</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348198</v>
+        <v>24.62163952773296</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897837</v>
+        <v>93.71057173897907</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2159888357144</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523533</v>
+        <v>54.76109577523575</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550456</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298315</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700195</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952702</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080332</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>46.92035559552124</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.381396723537</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,22 +3187,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
         <v>42.28735533463133</v>
@@ -3235,7 +3235,7 @@
         <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539627</v>
       </c>
       <c r="T34" t="n">
         <v>153.4156709287486</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3329,7 +3329,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,22 +3424,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
         <v>42.28735533463133</v>
@@ -3503,10 +3503,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,22 +3661,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
         <v>42.28735533463133</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3910,13 +3910,13 @@
         <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
         <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3989,13 +3989,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4068,13 +4068,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.9994691657081</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,16 +4101,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414547</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T45" t="n">
-        <v>190.7165703189231</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U45" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.8568435633447</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800353</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>101.6403363996198</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797661</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433869</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404357</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572822</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124554</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145477</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128493</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T46" t="n">
-        <v>172.5738126575766</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U46" t="n">
-        <v>239.2367015870203</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>205.1625067052354</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>239.5478617179984</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
-        <v>178.7345187704446</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.6095167335022</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1039.703785687808</v>
+        <v>1129.234822142136</v>
       </c>
       <c r="C2" t="n">
-        <v>1039.703785687808</v>
+        <v>760.2723052017247</v>
       </c>
       <c r="D2" t="n">
-        <v>681.438087081058</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="E2" t="n">
-        <v>681.438087081058</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F2" t="n">
-        <v>674.4925863318546</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2520.971603332393</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V2" t="n">
-        <v>2189.908715988822</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W2" t="n">
-        <v>2189.908715988822</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="X2" t="n">
-        <v>1816.442957727742</v>
+        <v>1366.188433646014</v>
       </c>
       <c r="Y2" t="n">
-        <v>1426.30362575193</v>
+        <v>1366.188433646014</v>
       </c>
     </row>
     <row r="3">
@@ -4398,31 +4398,31 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>204.0596212327002</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C4" t="n">
-        <v>204.0596212327002</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
         <v>53.94298182036445</v>
@@ -4513,25 +4513,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>721.2227824761496</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T4" t="n">
-        <v>721.2227824761496</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U4" t="n">
-        <v>432.0491721307175</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="V4" t="n">
-        <v>432.0491721307175</v>
+        <v>259.1560728187103</v>
       </c>
       <c r="W4" t="n">
-        <v>432.0491721307175</v>
+        <v>259.1560728187103</v>
       </c>
       <c r="X4" t="n">
-        <v>204.0596212327002</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="Y4" t="n">
-        <v>204.0596212327002</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2090.781606227855</v>
+        <v>1661.975310878425</v>
       </c>
       <c r="C5" t="n">
-        <v>1721.819089287443</v>
+        <v>1293.012793938013</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>934.7470953312629</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>934.7470953312629</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>523.7611905416554</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2464.247364488935</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2464.247364488935</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>2464.247364488935</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W5" t="n">
-        <v>2464.247364488935</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="X5" t="n">
-        <v>2090.781606227855</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="Y5" t="n">
-        <v>2090.781606227855</v>
+        <v>2048.575150942547</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4644,43 +4644,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>471.4038777286581</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C7" t="n">
-        <v>471.4038777286581</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D7" t="n">
-        <v>471.4038777286581</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>471.4038777286581</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>471.4038777286581</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="T7" t="n">
-        <v>471.4038777286581</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="U7" t="n">
-        <v>471.4038777286581</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="V7" t="n">
-        <v>471.4038777286581</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="W7" t="n">
-        <v>471.4038777286581</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="X7" t="n">
-        <v>471.4038777286581</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="Y7" t="n">
-        <v>471.4038777286581</v>
+        <v>372.9958041606071</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1791.109440255352</v>
+        <v>1675.109392681466</v>
       </c>
       <c r="C8" t="n">
-        <v>1422.14692331494</v>
+        <v>1675.109392681466</v>
       </c>
       <c r="D8" t="n">
-        <v>1422.14692331494</v>
+        <v>1675.109392681466</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>1289.321140083222</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>878.3352352936147</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>460.3714271918016</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.282427122408</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2520.971603332393</v>
+        <v>2048.575150942546</v>
       </c>
       <c r="V8" t="n">
-        <v>2189.908715988822</v>
+        <v>2048.575150942546</v>
       </c>
       <c r="W8" t="n">
-        <v>1837.140060718708</v>
+        <v>2048.575150942546</v>
       </c>
       <c r="X8" t="n">
-        <v>1791.109440255352</v>
+        <v>1675.109392681466</v>
       </c>
       <c r="Y8" t="n">
-        <v>1791.109440255352</v>
+        <v>1675.109392681466</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
         <v>1313.210296315296</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>409.5384547146244</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>409.5384547146244</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="D10" t="n">
-        <v>409.5384547146244</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E10" t="n">
-        <v>409.5384547146244</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F10" t="n">
-        <v>409.5384547146244</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G10" t="n">
-        <v>240.5386544529568</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323009</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323009</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>409.5384547146244</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>409.5384547146244</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>409.5384547146244</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>409.5384547146244</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>409.5384547146244</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5030,13 +5030,13 @@
         <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
@@ -5045,10 +5045,10 @@
         <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5124,19 +5124,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>583.2726413366777</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C13" t="n">
-        <v>414.3364584087708</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D13" t="n">
-        <v>264.219818996435</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E13" t="n">
-        <v>264.219818996435</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F13" t="n">
-        <v>264.219818996435</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5200,10 +5200,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
         <v>779.0639759471192</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1335.65818650127</v>
       </c>
       <c r="U13" t="n">
-        <v>1275.130855347408</v>
+        <v>1335.65818650127</v>
       </c>
       <c r="V13" t="n">
-        <v>1275.130855347408</v>
+        <v>1335.65818650127</v>
       </c>
       <c r="W13" t="n">
-        <v>985.7136853104475</v>
+        <v>1046.241016464309</v>
       </c>
       <c r="X13" t="n">
-        <v>985.7136853104475</v>
+        <v>818.2514655662917</v>
       </c>
       <c r="Y13" t="n">
-        <v>764.9211061669174</v>
+        <v>597.4588864227617</v>
       </c>
     </row>
     <row r="14">
@@ -5276,10 +5276,10 @@
         <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823784</v>
+        <v>365.8813331823778</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5294,7 +5294,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5364,7 +5364,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
         <v>1558.376451307619</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>525.6009593486385</v>
+        <v>527.1935825831084</v>
       </c>
       <c r="C16" t="n">
-        <v>356.6647764207315</v>
+        <v>527.1935825831084</v>
       </c>
       <c r="D16" t="n">
-        <v>356.6647764207315</v>
+        <v>527.1935825831084</v>
       </c>
       <c r="E16" t="n">
-        <v>208.7516828383384</v>
+        <v>379.2804890007153</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383384</v>
+        <v>379.2804890007153</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>211.1051673205359</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5440,16 +5440,16 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771461</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V16" t="n">
-        <v>955.1031435655738</v>
+        <v>755.1831334811258</v>
       </c>
       <c r="W16" t="n">
-        <v>665.6859735286132</v>
+        <v>755.1831334811258</v>
       </c>
       <c r="X16" t="n">
-        <v>525.6009593486385</v>
+        <v>527.1935825831084</v>
       </c>
       <c r="Y16" t="n">
-        <v>525.6009593486385</v>
+        <v>527.1935825831084</v>
       </c>
     </row>
     <row r="17">
@@ -5516,7 +5516,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5525,7 +5525,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5601,7 +5601,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
         <v>1558.376451307619</v>
@@ -5647,52 +5647,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>399.4500457733752</v>
+        <v>377.6878657662453</v>
       </c>
       <c r="C19" t="n">
-        <v>397.7517393246783</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D19" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E19" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F19" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.599783924196</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688075</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
         <v>1387.841167119728</v>
@@ -5701,22 +5701,22 @@
         <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1164.055751909234</v>
+        <v>1323.942036732344</v>
       </c>
       <c r="U19" t="n">
-        <v>874.9271131227922</v>
+        <v>1034.813397945902</v>
       </c>
       <c r="V19" t="n">
-        <v>620.2426249169054</v>
+        <v>780.1289097400153</v>
       </c>
       <c r="W19" t="n">
-        <v>620.2426249169054</v>
+        <v>780.1289097400153</v>
       </c>
       <c r="X19" t="n">
-        <v>620.2426249169054</v>
+        <v>780.1289097400153</v>
       </c>
       <c r="Y19" t="n">
-        <v>399.4500457733752</v>
+        <v>559.3363305964851</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5732,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823782</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5847,10 +5847,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>268.3619233770513</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C22" t="n">
-        <v>99.42574044914434</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D22" t="n">
-        <v>99.42574044914434</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5914,10 +5914,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1187.92115703528</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>898.7925182488384</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V22" t="n">
-        <v>898.7925182488384</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W22" t="n">
-        <v>898.7925182488384</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="X22" t="n">
-        <v>670.8029673508211</v>
+        <v>836.769640042142</v>
       </c>
       <c r="Y22" t="n">
-        <v>450.0103882072909</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="23">
@@ -5963,37 +5963,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155909</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
         <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822464</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823778</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6002,37 +6002,37 @@
         <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6054,40 +6054,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571612</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636255</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526318</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E25" t="n">
         <v>97.21709146028584</v>
@@ -6145,16 +6145,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347409</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609673</v>
+        <v>1130.245268120353</v>
       </c>
       <c r="V25" t="n">
-        <v>796.2722772255034</v>
+        <v>875.5607799144661</v>
       </c>
       <c r="W25" t="n">
-        <v>506.8551071885429</v>
+        <v>875.5607799144661</v>
       </c>
       <c r="X25" t="n">
-        <v>278.8655562905255</v>
+        <v>647.5712290164488</v>
       </c>
       <c r="Y25" t="n">
-        <v>278.8655562905255</v>
+        <v>426.7786498729187</v>
       </c>
     </row>
     <row r="26">
@@ -6203,52 +6203,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382247</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823772</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514047</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.8883477952</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515087</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619115</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643308</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899108</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720781</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6257,16 +6257,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6279,67 +6279,67 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>987.4312590525786</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>812.9782297714517</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>664.0438201102004</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>504.8063651047449</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316299</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358153</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675028</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256426</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701537</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L27" t="n">
-        <v>891.440640161996</v>
+        <v>880.8106280646855</v>
       </c>
       <c r="M27" t="n">
-        <v>1198.760773441955</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N27" t="n">
-        <v>1528.623401105986</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324681</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060426</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376139</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
-        <v>2623.573505376139</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S27" t="n">
         <v>2483.667400459913</v>
       </c>
       <c r="T27" t="n">
-        <v>2288.752784383691</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U27" t="n">
-        <v>2060.647860003078</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
         <v>1571.258395043133</v>
@@ -6348,7 +6348,7 @@
         <v>1363.4068948376</v>
       </c>
       <c r="Y27" t="n">
-        <v>1155.646596072647</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>394.223678370532</v>
+        <v>600.2296059587558</v>
       </c>
       <c r="C28" t="n">
-        <v>394.223678370532</v>
+        <v>600.2296059587558</v>
       </c>
       <c r="D28" t="n">
-        <v>244.1070389581963</v>
+        <v>450.11296654642</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581963</v>
+        <v>302.1998729640269</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028589</v>
+        <v>302.1998729640269</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028589</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241952</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688057</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799338</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471153</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974662</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980058</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585739</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557895</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557895</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473447</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1154.417952024174</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U28" t="n">
-        <v>865.2893132377324</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V28" t="n">
-        <v>865.2893132377324</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W28" t="n">
-        <v>575.8721432007717</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="X28" t="n">
-        <v>575.8721432007717</v>
+        <v>781.8780707889955</v>
       </c>
       <c r="Y28" t="n">
-        <v>575.8721432007717</v>
+        <v>781.8780707889955</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805479</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382247</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823772</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514047</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.8883477952</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515087</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619115</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643308</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899108</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720781</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6516,67 +6516,67 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>987.4312590525786</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>812.9782297714517</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>664.0438201102004</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>504.8063651047449</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316299</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358153</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675028</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126474</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571585</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636205</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.51382364358</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130761</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526305</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963127</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278839</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
-        <v>2623.573505376139</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
         <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>2288.752784383691</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>2060.647860003078</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
         <v>1571.258395043133</v>
@@ -6585,7 +6585,7 @@
         <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>1155.646596072647</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>564.3668169895344</v>
+        <v>607.5569798833412</v>
       </c>
       <c r="C31" t="n">
-        <v>451.191499342999</v>
+        <v>494.3816622368051</v>
       </c>
       <c r="D31" t="n">
-        <v>451.191499342999</v>
+        <v>400.0258881058401</v>
       </c>
       <c r="E31" t="n">
-        <v>451.191499342999</v>
+        <v>307.8736598048177</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264602</v>
+        <v>216.7445775882782</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276523</v>
+        <v>191.8742346309718</v>
       </c>
       <c r="H31" t="n">
-        <v>152.990817556967</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864675</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933502</v>
+        <v>369.0876362933501</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667505</v>
+        <v>671.4509053667508</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962043</v>
+        <v>997.668872196205</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286023</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353691</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021645</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056073</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899269</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
         <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.62813016707</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662</v>
+        <v>1503.284906591122</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737485</v>
+        <v>1304.361283666606</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818957</v>
+        <v>1070.704978911016</v>
       </c>
       <c r="X31" t="n">
-        <v>855.2861304005611</v>
+        <v>898.4762932943695</v>
       </c>
       <c r="Y31" t="n">
-        <v>690.2544165384026</v>
+        <v>733.4445794322102</v>
       </c>
     </row>
     <row r="32">
@@ -6677,31 +6677,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155884</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6786,13 +6786,13 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229673</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
@@ -6856,16 +6856,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525402</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649694</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
         <v>1386.860941116388</v>
@@ -6877,31 +6877,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6920,40 +6920,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.627437207831</v>
@@ -6968,19 +6968,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7023,7 +7023,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7072,40 +7072,40 @@
         <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.931591798297</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525404</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254961</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649695</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O37" t="n">
         <v>1688.186490350129</v>
@@ -7114,10 +7114,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
@@ -7169,16 +7169,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7196,28 +7196,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7248,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7257,22 +7257,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229678</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506731</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083211</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504519</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103136</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L40" t="n">
         <v>709.8489468649691</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
     <row r="41">
@@ -7403,37 +7403,37 @@
         <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7476,34 +7476,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229676</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083209</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103133</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
@@ -7573,7 +7573,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,31 +7588,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2375.872413702068</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2006.909896761656</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1648.644198154905</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1262.855945556661</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>851.8700407670534</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>436.7975906120499</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>139.2139902208171</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>286.0962224193113</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>619.9155961091578</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L44" t="n">
-        <v>1239.362759376019</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2217.913062205848</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3197.665334432495</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>4077.629984761949</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4472.404351119128</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4720.69071287481</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4779.707779431612</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4669.417110958707</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4463.439363342929</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4209.908886616766</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3878.845999273196</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3526.077344003081</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3152.611585742001</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2762.47225376619</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>972.2488295092107</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>797.7958002280837</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>648.8613905668326</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>489.623935561377</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>343.0893775882621</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>206.7262774208804</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>116.2243830587479</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>190.8943609509032</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>429.1585599312504</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>795.8567202439158</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M45" t="n">
-        <v>1243.133045466232</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N45" t="n">
-        <v>1716.656089020686</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O45" t="n">
-        <v>2127.617368438741</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P45" t="n">
-        <v>2438.116959914844</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2595.758517561444</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
-        <v>2595.614164153959</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S45" t="n">
-        <v>2466.176277647439</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T45" t="n">
-        <v>2273.533277325294</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U45" t="n">
-        <v>2045.46543045971</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>1810.313322227967</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
-        <v>1556.075965499766</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X45" t="n">
-        <v>1348.224465294233</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y45" t="n">
-        <v>1140.464166529279</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>790.1712248333968</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C46" t="n">
-        <v>668.6846748535631</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D46" t="n">
-        <v>566.0176683893008</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E46" t="n">
-        <v>465.554207754981</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F46" t="n">
-        <v>366.1138932051439</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
-        <v>245.8606895279361</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
-        <v>147.0931356938672</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>188.845109159628</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>439.337677360911</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>802.4028610618138</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M46" t="n">
-        <v>1193.065291913769</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1580.97905387204</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1926.81403804486</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>2205.926923730926</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2330.042605135848</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>2287.661780841449</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>2143.425529616349</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
-        <v>1969.108547133948</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1727.455313207665</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1520.220457949851</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
-        <v>1278.252920860964</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>1097.71300291102</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
-        <v>924.3700567155631</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516226</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747117</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8772,7 +8772,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>180.0237016735874</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,10 +8784,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208048</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987300518</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9957,7 +9957,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>96.03744927816194</v>
+        <v>85.30006332127806</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445277</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987300518</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208227</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10434,7 +10434,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>288.4091825776751</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,7 +10905,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776744</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,13 +11294,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L44" t="n">
-        <v>170.1140909277299</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11312,13 +11312,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,16 +11370,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11394,10 +11394,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,10 +23416,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,10 +23428,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>1.160868202589853</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>169.8864102461156</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890386</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>36.16463326588857</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -23713,10 +23713,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>87.02549135086224</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>165.5654977144179</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23905,10 +23905,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>158.2874219748793</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24133,13 +24133,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>144.2474001475993</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24172,25 +24172,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>43.86969556065181</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -24418,19 +24418,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>142.800621043793</v>
       </c>
       <c r="V25" t="n">
-        <v>64.30500338171876</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>112.4744431422101</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675362</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4192454642722</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037931</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>78.41503569360944</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,10 +24661,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965453</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801135</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>86.66867230708758</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571495</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>123.5860431649581</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1167617.736428484</v>
+        <v>1167617.736428483</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1163342.940521605</v>
+        <v>1177974.229671724</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>287364.6194524994</v>
+      </c>
+      <c r="C2" t="n">
         <v>287364.6194524996</v>
       </c>
-      <c r="C2" t="n">
-        <v>287364.6194524994</v>
-      </c>
       <c r="D2" t="n">
-        <v>287364.6194524994</v>
+        <v>287364.6194524992</v>
       </c>
       <c r="E2" t="n">
-        <v>273720.3418163963</v>
+        <v>273720.3418163965</v>
       </c>
       <c r="F2" t="n">
-        <v>273720.3418163963</v>
+        <v>273720.3418163964</v>
       </c>
       <c r="G2" t="n">
-        <v>273720.3418163963</v>
+        <v>273720.3418163964</v>
       </c>
       <c r="H2" t="n">
         <v>273720.3418163963</v>
       </c>
       <c r="I2" t="n">
-        <v>273720.3418163963</v>
+        <v>273720.3418163964</v>
       </c>
       <c r="J2" t="n">
         <v>273720.3418163963</v>
       </c>
       <c r="K2" t="n">
-        <v>284775.4961416894</v>
+        <v>284775.4961416892</v>
       </c>
       <c r="L2" t="n">
-        <v>287364.6194524989</v>
+        <v>287364.6194524993</v>
       </c>
       <c r="M2" t="n">
-        <v>287364.6194524994</v>
+        <v>287364.619452499</v>
       </c>
       <c r="N2" t="n">
         <v>287364.6194524992</v>
       </c>
       <c r="O2" t="n">
-        <v>287364.6194524989</v>
+        <v>287364.6194524988</v>
       </c>
       <c r="P2" t="n">
-        <v>287364.6194524995</v>
+        <v>287364.619452499</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,16 +26384,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.278882670405437e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925893</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284626</v>
+        <v>44162.60530284564</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086944</v>
+        <v>10342.90680086689</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26402,10 +26402,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>199883.8198755744</v>
+        <v>44162.60530284565</v>
       </c>
     </row>
     <row r="4">
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>174490.7773218261</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
         <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>174490.7773218261</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>29303.54555230231</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
         <v>29303.54555230233</v>
@@ -26433,31 +26433,31 @@
         <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
-        <v>29303.54555230257</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
-        <v>47468.16806649936</v>
+        <v>47468.16806649888</v>
       </c>
       <c r="L4" t="n">
-        <v>51722.3327936228</v>
+        <v>51722.33279362282</v>
       </c>
       <c r="M4" t="n">
-        <v>51722.33279362279</v>
+        <v>51722.33279362282</v>
       </c>
       <c r="N4" t="n">
-        <v>51722.33279362279</v>
+        <v>51722.33279362283</v>
       </c>
       <c r="O4" t="n">
-        <v>51722.33279362279</v>
+        <v>51722.33279362282</v>
       </c>
       <c r="P4" t="n">
-        <v>30134.53761950705</v>
+        <v>51722.33279362282</v>
       </c>
     </row>
     <row r="5">
@@ -26473,25 +26473,25 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871656</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022279</v>
@@ -26503,13 +26503,13 @@
         <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="O5" t="n">
         <v>97715.1058200254</v>
       </c>
-      <c r="O5" t="n">
-        <v>97715.10582002539</v>
-      </c>
       <c r="P5" t="n">
-        <v>101591.2743431396</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-559953.1151472806</v>
+        <v>-559953.1151472807</v>
       </c>
       <c r="C6" t="n">
-        <v>30014.76406726375</v>
+        <v>30014.7640672639</v>
       </c>
       <c r="D6" t="n">
-        <v>30014.76406726375</v>
+        <v>30014.76406726355</v>
       </c>
       <c r="E6" t="n">
-        <v>-372730.5661615186</v>
+        <v>-372828.0252874908</v>
       </c>
       <c r="F6" t="n">
-        <v>152429.4703153774</v>
+        <v>152332.0111894053</v>
       </c>
       <c r="G6" t="n">
-        <v>152429.4703153774</v>
+        <v>152332.0111894053</v>
       </c>
       <c r="H6" t="n">
-        <v>152429.4703153774</v>
+        <v>152332.0111894051</v>
       </c>
       <c r="I6" t="n">
-        <v>152429.4703153769</v>
+        <v>152332.0111894053</v>
       </c>
       <c r="J6" t="n">
-        <v>-23993.7488772122</v>
+        <v>-24091.2080031878</v>
       </c>
       <c r="K6" t="n">
-        <v>96516.51424212093</v>
+        <v>96498.0205041875</v>
       </c>
       <c r="L6" t="n">
-        <v>127584.2740379812</v>
+        <v>127584.2740379842</v>
       </c>
       <c r="M6" t="n">
-        <v>3126.165605014001</v>
+        <v>3126.165605013564</v>
       </c>
       <c r="N6" t="n">
         <v>137927.180838851</v>
       </c>
       <c r="O6" t="n">
-        <v>137927.1808388505</v>
+        <v>137927.1808388506</v>
       </c>
       <c r="P6" t="n">
-        <v>-44245.01238572159</v>
+        <v>93764.57553600508</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855782</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26738,46 +26738,46 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541009</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054540959</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054540959</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593298</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26811,10 +26811,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855782</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108284</v>
+        <v>12.92863350108362</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>34.04650311750973</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,16 +26978,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>-3.698003827352768e-12</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>4.433786671143025e-12</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26996,10 +26996,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>259.3942951391978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855782</v>
+        <v>55.20325662855705</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>148.1497662746421</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>275.2941505636382</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27540,10 +27540,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27585,22 +27585,22 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>205.308399237037</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>168.982657947244</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>272.5869161510741</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>214.7697264774463</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27774,10 +27774,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>90.35998513251054</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>7.228882684807928</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>73.48992809149567</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>324.160786419746</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28011,25 +28011,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>152.7829238717195</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>16.64113212406565</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,7 +28065,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855782</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855782</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855782</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855782</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855782</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855782</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855782</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855782</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855782</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855782</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855782</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855782</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855782</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855782</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855782</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855782</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855782</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855782</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855782</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855782</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855782</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855782</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855782</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855782</v>
+        <v>55.20325662855705</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31695,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176653</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565522</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.647069592719</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.452637254089</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946996</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647499</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104654</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354895</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127069</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215735</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622985</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724849</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813465</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855529</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458552</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710958</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095119</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361495</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298633</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171321</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065634</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337674</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336903</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.39802836989225</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443599</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444926</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176645</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961189</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041466</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304412</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565487</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927154</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540856</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946967</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647477</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446466</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104608</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562936</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354879</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354093</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386716</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127032</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215725</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622967</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358964</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724822</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813437</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855504</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458531</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710944</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095112</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677447</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361451</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680325</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081156</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990338</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298606</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
-        <v>105.8669502822378</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557925</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196112</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171307</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263738</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065621</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469063</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235685</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337634</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336887</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892212</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351771</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443599</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444926</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176645</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961189</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041466</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304412</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565487</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927154</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540856</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946967</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647477</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446466</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104608</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562936</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354879</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354093</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386716</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127032</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215725</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622967</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358964</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724822</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813437</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855504</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458531</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710944</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095112</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677447</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361451</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1175069441680325</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081156</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990338</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298606</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
-        <v>105.8669502822378</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557925</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196112</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171307</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263738</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065621</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469063</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235685</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337634</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336887</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892212</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351771</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
-        <v>138.937596729739</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34793,7 +34793,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,19 +35021,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279164</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35492,7 +35492,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>429.2814066296117</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504662</v>
@@ -35504,10 +35504,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,16 +35732,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,16 +35969,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36215,13 +36215,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303333</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081123</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951476</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109127</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349825</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005181</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560246</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504666</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980132</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411085</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523297</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686872</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.5077701655656</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187485</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415064</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303308</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109044</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221085</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081087</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951442</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109098</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502029</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970351971</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490577</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005163</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>345.2951542341842</v>
+        <v>334.5577682773024</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504639</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980104</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.363702241106</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.55618357146</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.090320520922</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556498</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299096</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799274</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789713</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056025</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206017</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006117998</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187409</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415064</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303308</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109044</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221085</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081087</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951442</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109098</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502029</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970351971</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953146</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005163</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560222</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504639</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980104</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.363702241106</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523456</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.090320520922</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686805</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.7110267941228</v>
+        <v>67.71102679412257</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584675</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084852</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075291</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341603</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491596</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403576</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043192</v>
+        <v>94.4289566004318</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,16 +37154,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>598.8335596281414</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37239,7 +37239,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414414</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,16 +37391,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37476,7 +37476,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414414</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,25 +37625,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37713,7 +37713,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414414</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,25 +37935,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L43" t="n">
-        <v>318.3460770095693</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M43" t="n">
-        <v>342.4417313086133</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L44" t="n">
-        <v>625.7042053200621</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230593</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165878</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629121</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887907</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120764</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861327</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>349.3282668412323</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>281.932207763703</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3693751564862</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
